--- a/biology/Zoologie/Agromyzidae/Agromyzidae.xlsx
+++ b/biology/Zoologie/Agromyzidae/Agromyzidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Agromyzidae, Agromyzidés, sont une famille de mouches petites ou très petites de 1 à 6,5 mm de longueur (en moyenne 2,5 à 3,5 mm).
-Leurs larves sont des mineuses de feuilles, de tiges (dont la moelle), de l'écorce, des fruits ou des brindilles de certaines plantes, pouvant engendrer des dégâts à diverses cultures ou aux plantes ornementales. Cette caractéristique vaut à cette famille le nom de mouches mineuses[1].
+Leurs larves sont des mineuses de feuilles, de tiges (dont la moelle), de l'écorce, des fruits ou des brindilles de certaines plantes, pouvant engendrer des dégâts à diverses cultures ou aux plantes ornementales. Cette caractéristique vaut à cette famille le nom de mouches mineuses.
 Leur coloration est assez uniforme selon les genres : soit noire, soit en partie jaune. On en connaît environ 2 600 espèces dans le monde réparties en 27 genres, 820 en Europe et il en existe probablement 500 en France.
 Les adultes sont assez difficiles à séparer d'autres familles et peuvent être reconnues par un ensemble de caractères difficilement appréciables. Par contre, le complexe génital des mâles est caractéristique de la famille. Les adultes sont morphologiquement très proches et seul l'examen de l'organe génital du mâle permet une identification spécifique certaine.
 La connaissance de la plante hôte ainsi que la forme des mines est importante et permet dans de nombreux cas de savoir à quelle espèce on a affaire.
@@ -515,7 +527,9 @@
           <t>Caractères distinctifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adultes :
 Arista nue ou au plus avec des cils courts, elle n'est jamais plumeuse
@@ -553,7 +567,9 @@
           <t>Espèces nuisibles aux cultures maraîchères en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Agromyza apfrlbecki Strobl 	Mouche mineuse de l'Artichaut
 Agromyza lathyri Hendel 	Mouche noire mineuse des Légumineuses
@@ -614,7 +630,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous famille Agromyzinae
 Agromyza Fallen
